--- a/FIN 401/Week 3/FIN401 Day 7 - Tire City Financial Statements.xlsx
+++ b/FIN 401/Week 3/FIN401 Day 7 - Tire City Financial Statements.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailey\Desktop\Spring-2022\FIN 401\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD7F49-BAEC-4BF0-990E-B7C71B74A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B88756-0CEB-4DC4-8FDE-3FDF588AEF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9075" yWindow="885" windowWidth="7500" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tire City" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Revenue</t>
   </si>
@@ -238,9 +236,6 @@
   </si>
   <si>
     <t>Weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>-</t>
@@ -285,7 +280,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -425,7 +420,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -734,8 +729,8 @@
   </sheetPr>
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,15 +948,21 @@
         <v>0.1004313000616143</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" ref="C12:D12" si="11">C44/C22</f>
+        <f t="shared" ref="C12:F12" si="11">C44/C22</f>
         <v>9.0297224269221321E-2</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="11"/>
         <v>9.3171665603063183E-2</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="7">
+        <f t="shared" si="11"/>
+        <v>5.7611855633553144E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="11"/>
+        <v>9.3171665603063183E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1078,15 +1079,21 @@
         <v>63.091198303287378</v>
       </c>
       <c r="C18" s="18">
-        <f t="shared" ref="C18:D18" si="17">C44/(C23/365)</f>
+        <f t="shared" ref="C18:F18" si="17">C44/(C23/365)</f>
         <v>56.385106740628679</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="17"/>
         <v>58.723920070526013</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="18">
+        <f t="shared" si="17"/>
+        <v>36.311404153198154</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="17"/>
+        <v>58.723920070526006</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -1259,8 +1266,7 @@
         <v>213</v>
       </c>
       <c r="F27" s="4">
-        <f>E27</f>
-        <v>213</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1276,12 +1282,13 @@
       <c r="D28" s="5">
         <v>94</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>68</v>
+      <c r="E28" s="5">
+        <f>E58*E15</f>
+        <v>113.86292585170298</v>
       </c>
       <c r="F28" s="5">
         <f>F58*F15</f>
-        <v>62.701687463102488</v>
+        <v>161.39139095034182</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,11 +1309,11 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" ref="E29:F29" si="21">SUM(E26:E28)</f>
-        <v>9178.1999999999989</v>
+        <v>9292.0629258517019</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="21"/>
-        <v>11033.941687463101</v>
+        <v>11252.631390950341</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,11 +1341,11 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" ref="E31:F31" si="22">E24-E29</f>
-        <v>2693.3999999999996</v>
+        <v>2579.5370741482966</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="22"/>
-        <v>3211.9783125368976</v>
+        <v>2993.2886090496577</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,11 +1363,11 @@
       </c>
       <c r="E32" s="5">
         <f>E31*E9</f>
-        <v>1177.9645390070921</v>
+        <v>1128.1663326653306</v>
       </c>
       <c r="F32" s="5">
         <f>F31*F9</f>
-        <v>1404.765928650889</v>
+        <v>1309.1214956836566</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,11 +1388,11 @@
       </c>
       <c r="E33" s="6">
         <f t="shared" ref="E33:F33" si="24">E31-E32</f>
-        <v>1515.4354609929076</v>
+        <v>1451.370741482966</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="24"/>
-        <v>1807.2123838860086</v>
+        <v>1684.1671133660011</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1524,7 +1531,8 @@
         <v>1625</v>
       </c>
       <c r="F44" s="5">
-        <v>2190</v>
+        <f>D12*F22</f>
+        <v>3153.6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,7 +1557,7 @@
       </c>
       <c r="F45" s="4">
         <f t="shared" si="25"/>
-        <v>8465.5199999999986</v>
+        <v>9429.119999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,7 +1608,7 @@
       </c>
       <c r="F48" s="5">
         <f>E48-F27</f>
-        <v>-2154</v>
+        <v>-2274</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1625,7 +1633,7 @@
       </c>
       <c r="F49" s="4">
         <f>F47+F48</f>
-        <v>4409</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1657,7 +1665,7 @@
       </c>
       <c r="F51" s="6">
         <f t="shared" si="27"/>
-        <v>12874.519999999999</v>
+        <v>13718.119999999999</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1805,15 +1813,15 @@
         <v>1138.6292585170297</v>
       </c>
       <c r="F58" s="11">
-        <v>627.01687463102485</v>
+        <v>1613.9139095034179</v>
       </c>
       <c r="H58" s="27">
         <f>AVERAGE(B58:F58)</f>
-        <v>953.1292266296108</v>
+        <v>1150.5086336040895</v>
       </c>
       <c r="I58" s="31">
         <f>H58/H64</f>
-        <v>0.15244345782097804</v>
+        <v>0.17975455488313732</v>
       </c>
       <c r="J58" s="31">
         <f>B72</f>
@@ -1825,7 +1833,7 @@
       </c>
       <c r="L58" s="31">
         <f>I58*K58</f>
-        <v>8.5825666753210628E-3</v>
+        <v>1.012018143992063E-2</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1850,7 +1858,7 @@
       </c>
       <c r="F59" s="10">
         <f t="shared" si="30"/>
-        <v>5080.9368746310247</v>
+        <v>6067.833909503418</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -1884,7 +1892,7 @@
         <v>1135</v>
       </c>
       <c r="E61" s="16">
-        <v>1135</v>
+        <v>1139.7590934493135</v>
       </c>
       <c r="F61" s="16">
         <v>1135</v>
@@ -1910,11 +1918,11 @@
       </c>
       <c r="E62" s="5">
         <f>D62+E33-E35</f>
-        <v>5155.4354609929078</v>
+        <v>5091.370741482966</v>
       </c>
       <c r="F62" s="5">
         <f>E62+F33-F35</f>
-        <v>6722.6478448789167</v>
+        <v>6535.5378548489671</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -1940,19 +1948,19 @@
       </c>
       <c r="E63" s="4">
         <f t="shared" ref="E63:F63" si="32">SUM(E61:E62)</f>
-        <v>6290.4354609929078</v>
+        <v>6231.1298349322797</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" si="32"/>
-        <v>7857.6478448789167</v>
+        <v>7670.5378548489671</v>
       </c>
       <c r="H63" s="35">
         <f>AVERAGE(B63:F63)</f>
-        <v>5299.2166611743651</v>
+        <v>5249.933537956249</v>
       </c>
       <c r="I63" s="36">
         <f>H63/H64</f>
-        <v>0.84755654217902199</v>
+        <v>0.8202454451168627</v>
       </c>
       <c r="J63" s="37">
         <f>B82</f>
@@ -1964,7 +1972,7 @@
       </c>
       <c r="L63" s="38">
         <f>I63*K63</f>
-        <v>0.12713348132685331</v>
+        <v>0.12303681676752942</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1975,7 +1983,7 @@
       <c r="F64" s="4"/>
       <c r="H64" s="27">
         <f>SUM(H58:H63)</f>
-        <v>6252.3458878039755</v>
+        <v>6400.4421715603385</v>
       </c>
       <c r="I64" s="39">
         <f>SUM(I58:I63)</f>
@@ -1985,7 +1993,7 @@
       <c r="K64" s="40"/>
       <c r="L64" s="39">
         <f>L63+L58</f>
-        <v>0.13571604800217438</v>
+        <v>0.13315699820745006</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2006,11 +2014,11 @@
       </c>
       <c r="E65" s="6">
         <f t="shared" ref="E65:F65" si="34">E59+E63</f>
-        <v>11140.664719509938</v>
+        <v>11081.35909344931</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="34"/>
-        <v>12938.584719509941</v>
+        <v>13738.371764352385</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2027,11 +2035,11 @@
       <c r="D67" s="4"/>
       <c r="E67" s="17">
         <f>E51-E65</f>
-        <v>-64.064719509939096</v>
+        <v>-4.7590934493109671</v>
       </c>
       <c r="F67" s="17">
         <f>F51-F65</f>
-        <v>-64.064719509942734</v>
+        <v>-20.25176435238609</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2051,7 +2059,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2102,7 +2110,7 @@
       </c>
       <c r="B78" s="26">
         <f>H58</f>
-        <v>953.1292266296108</v>
+        <v>1150.5086336040895</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2111,7 +2119,7 @@
       </c>
       <c r="B79" s="27">
         <f>H63</f>
-        <v>5299.2166611743651</v>
+        <v>5249.933537956249</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2142,22 +2150,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
         <v>70</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>71</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>72</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>73</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>74</v>
-      </c>
-      <c r="G86" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2192,7 +2200,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" s="17">
         <f>SUM(B87:B88)</f>
@@ -2221,7 +2229,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="19">
         <f>IRR(B90:G90)</f>
@@ -2230,11 +2238,11 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="8">
         <f>NPV(L64,C90:G90)+B87</f>
-        <v>222.39234016294449</v>
+        <v>247.83831015857868</v>
       </c>
     </row>
   </sheetData>
